--- a/download/sample-csv-products.xlsx
+++ b/download/sample-csv-products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\new20\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stock_tracking\stock_tracking\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D048D79D-D7CB-4895-A7FB-33DB0297783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E1F28-6974-4454-83D2-C32A06E423AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample-csv-products" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1420,10 +1420,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D148"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1452,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1466,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1480,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1494,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>400</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1508,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1522,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>600</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>601</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1550,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>602</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>603</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>604</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1606,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>606</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>607</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>608</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>609</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>610</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>611</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1690,7 +1692,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>612</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,7 +1706,7 @@
         <v>41</v>
       </c>
       <c r="D20">
-        <v>613</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,7 +1720,7 @@
         <v>41</v>
       </c>
       <c r="D21">
-        <v>614</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1732,7 +1734,7 @@
         <v>41</v>
       </c>
       <c r="D22">
-        <v>615</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1746,7 +1748,7 @@
         <v>41</v>
       </c>
       <c r="D23">
-        <v>616</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="D24">
-        <v>617</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1774,7 +1776,7 @@
         <v>47</v>
       </c>
       <c r="D25">
-        <v>618</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,7 +1790,7 @@
         <v>47</v>
       </c>
       <c r="D26">
-        <v>619</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1802,7 +1804,7 @@
         <v>47</v>
       </c>
       <c r="D27">
-        <v>620</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1816,7 +1818,7 @@
         <v>47</v>
       </c>
       <c r="D28">
-        <v>621</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1830,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D29">
-        <v>622</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1844,7 +1846,7 @@
         <v>47</v>
       </c>
       <c r="D30">
-        <v>623</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1858,7 +1860,7 @@
         <v>47</v>
       </c>
       <c r="D31">
-        <v>624</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1872,7 +1874,7 @@
         <v>47</v>
       </c>
       <c r="D32">
-        <v>625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1886,7 +1888,7 @@
         <v>47</v>
       </c>
       <c r="D33">
-        <v>626</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1900,7 +1902,7 @@
         <v>58</v>
       </c>
       <c r="D34">
-        <v>627</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1914,7 +1916,7 @@
         <v>58</v>
       </c>
       <c r="D35">
-        <v>628</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,7 +1930,7 @@
         <v>58</v>
       </c>
       <c r="D36">
-        <v>629</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1942,7 +1944,7 @@
         <v>58</v>
       </c>
       <c r="D37">
-        <v>630</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1956,7 +1958,7 @@
         <v>58</v>
       </c>
       <c r="D38">
-        <v>631</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1970,7 +1972,7 @@
         <v>58</v>
       </c>
       <c r="D39">
-        <v>632</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1984,7 +1986,7 @@
         <v>58</v>
       </c>
       <c r="D40">
-        <v>633</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1998,7 +2000,7 @@
         <v>58</v>
       </c>
       <c r="D41">
-        <v>634</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2012,7 +2014,7 @@
         <v>58</v>
       </c>
       <c r="D42">
-        <v>635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2026,7 +2028,7 @@
         <v>58</v>
       </c>
       <c r="D43">
-        <v>636</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2040,7 +2042,7 @@
         <v>58</v>
       </c>
       <c r="D44">
-        <v>637</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2054,7 +2056,7 @@
         <v>58</v>
       </c>
       <c r="D45">
-        <v>638</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2068,7 +2070,7 @@
         <v>58</v>
       </c>
       <c r="D46">
-        <v>639</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2082,7 +2084,7 @@
         <v>58</v>
       </c>
       <c r="D47">
-        <v>640</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2096,7 +2098,7 @@
         <v>74</v>
       </c>
       <c r="D48">
-        <v>641</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2110,7 +2112,7 @@
         <v>76</v>
       </c>
       <c r="D49">
-        <v>642</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2124,7 +2126,7 @@
         <v>76</v>
       </c>
       <c r="D50">
-        <v>643</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2138,7 +2140,7 @@
         <v>76</v>
       </c>
       <c r="D51">
-        <v>644</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2152,7 +2154,7 @@
         <v>76</v>
       </c>
       <c r="D52">
-        <v>645</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2166,7 +2168,7 @@
         <v>76</v>
       </c>
       <c r="D53">
-        <v>646</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2180,7 +2182,7 @@
         <v>76</v>
       </c>
       <c r="D54">
-        <v>647</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2194,7 +2196,7 @@
         <v>83</v>
       </c>
       <c r="D55">
-        <v>648</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2208,7 +2210,7 @@
         <v>83</v>
       </c>
       <c r="D56">
-        <v>649</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2222,7 +2224,7 @@
         <v>83</v>
       </c>
       <c r="D57">
-        <v>650</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2236,7 +2238,7 @@
         <v>83</v>
       </c>
       <c r="D58">
-        <v>651</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2250,7 +2252,7 @@
         <v>83</v>
       </c>
       <c r="D59">
-        <v>652</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2264,7 +2266,7 @@
         <v>83</v>
       </c>
       <c r="D60">
-        <v>653</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,7 +2280,7 @@
         <v>83</v>
       </c>
       <c r="D61">
-        <v>654</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2292,7 +2294,7 @@
         <v>83</v>
       </c>
       <c r="D62">
-        <v>655</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2306,7 +2308,7 @@
         <v>83</v>
       </c>
       <c r="D63">
-        <v>656</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2320,7 +2322,7 @@
         <v>83</v>
       </c>
       <c r="D64">
-        <v>657</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2334,7 +2336,7 @@
         <v>83</v>
       </c>
       <c r="D65">
-        <v>658</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2348,7 +2350,7 @@
         <v>83</v>
       </c>
       <c r="D66">
-        <v>659</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2362,7 +2364,7 @@
         <v>83</v>
       </c>
       <c r="D67">
-        <v>660</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2376,7 +2378,7 @@
         <v>97</v>
       </c>
       <c r="D68">
-        <v>661</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2390,7 +2392,7 @@
         <v>97</v>
       </c>
       <c r="D69">
-        <v>662</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2404,7 +2406,7 @@
         <v>97</v>
       </c>
       <c r="D70">
-        <v>663</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2418,7 +2420,7 @@
         <v>97</v>
       </c>
       <c r="D71">
-        <v>664</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2432,7 +2434,7 @@
         <v>97</v>
       </c>
       <c r="D72">
-        <v>665</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2446,7 +2448,7 @@
         <v>97</v>
       </c>
       <c r="D73">
-        <v>666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2460,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D74">
-        <v>667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2474,7 +2476,7 @@
         <v>97</v>
       </c>
       <c r="D75">
-        <v>668</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,7 +2490,7 @@
         <v>97</v>
       </c>
       <c r="D76">
-        <v>669</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2502,7 +2504,7 @@
         <v>97</v>
       </c>
       <c r="D77">
-        <v>670</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2516,7 +2518,7 @@
         <v>97</v>
       </c>
       <c r="D78">
-        <v>671</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2530,7 +2532,7 @@
         <v>97</v>
       </c>
       <c r="D79">
-        <v>672</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2544,7 +2546,7 @@
         <v>97</v>
       </c>
       <c r="D80">
-        <v>673</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2558,7 +2560,7 @@
         <v>97</v>
       </c>
       <c r="D81">
-        <v>674</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2572,7 +2574,7 @@
         <v>97</v>
       </c>
       <c r="D82">
-        <v>675</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2586,7 +2588,7 @@
         <v>97</v>
       </c>
       <c r="D83">
-        <v>676</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2600,7 +2602,7 @@
         <v>97</v>
       </c>
       <c r="D84">
-        <v>677</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2614,7 +2616,7 @@
         <v>97</v>
       </c>
       <c r="D85">
-        <v>678</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2628,7 +2630,7 @@
         <v>116</v>
       </c>
       <c r="D86">
-        <v>679</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2642,7 +2644,7 @@
         <v>116</v>
       </c>
       <c r="D87">
-        <v>680</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2656,7 +2658,7 @@
         <v>116</v>
       </c>
       <c r="D88">
-        <v>681</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2670,7 +2672,7 @@
         <v>116</v>
       </c>
       <c r="D89">
-        <v>682</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2684,7 +2686,7 @@
         <v>116</v>
       </c>
       <c r="D90">
-        <v>683</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2698,7 +2700,7 @@
         <v>116</v>
       </c>
       <c r="D91">
-        <v>684</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2712,7 +2714,7 @@
         <v>116</v>
       </c>
       <c r="D92">
-        <v>685</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2726,7 +2728,7 @@
         <v>116</v>
       </c>
       <c r="D93">
-        <v>686</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2740,7 +2742,7 @@
         <v>116</v>
       </c>
       <c r="D94">
-        <v>687</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2754,7 +2756,7 @@
         <v>116</v>
       </c>
       <c r="D95">
-        <v>688</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2768,7 +2770,7 @@
         <v>116</v>
       </c>
       <c r="D96">
-        <v>689</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2782,7 +2784,7 @@
         <v>116</v>
       </c>
       <c r="D97">
-        <v>690</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2796,7 +2798,7 @@
         <v>116</v>
       </c>
       <c r="D98">
-        <v>691</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2810,7 +2812,7 @@
         <v>129</v>
       </c>
       <c r="D99">
-        <v>692</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2824,7 +2826,7 @@
         <v>129</v>
       </c>
       <c r="D100">
-        <v>693</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2838,7 +2840,7 @@
         <v>129</v>
       </c>
       <c r="D101">
-        <v>694</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2852,7 +2854,7 @@
         <v>129</v>
       </c>
       <c r="D102">
-        <v>695</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2866,7 +2868,7 @@
         <v>134</v>
       </c>
       <c r="D103">
-        <v>696</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2880,7 +2882,7 @@
         <v>134</v>
       </c>
       <c r="D104">
-        <v>697</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2894,7 +2896,7 @@
         <v>134</v>
       </c>
       <c r="D105">
-        <v>698</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2908,7 +2910,7 @@
         <v>134</v>
       </c>
       <c r="D106">
-        <v>699</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2922,7 +2924,7 @@
         <v>134</v>
       </c>
       <c r="D107">
-        <v>700</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2936,7 +2938,7 @@
         <v>134</v>
       </c>
       <c r="D108">
-        <v>701</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2950,7 +2952,7 @@
         <v>134</v>
       </c>
       <c r="D109">
-        <v>702</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2964,7 +2966,7 @@
         <v>134</v>
       </c>
       <c r="D110">
-        <v>703</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2978,7 +2980,7 @@
         <v>134</v>
       </c>
       <c r="D111">
-        <v>704</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2992,7 +2994,7 @@
         <v>134</v>
       </c>
       <c r="D112">
-        <v>705</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3006,7 +3008,7 @@
         <v>134</v>
       </c>
       <c r="D113">
-        <v>706</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3020,7 +3022,7 @@
         <v>134</v>
       </c>
       <c r="D114">
-        <v>707</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3034,7 +3036,7 @@
         <v>134</v>
       </c>
       <c r="D115">
-        <v>708</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3048,7 +3050,7 @@
         <v>134</v>
       </c>
       <c r="D116">
-        <v>709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3062,7 +3064,7 @@
         <v>134</v>
       </c>
       <c r="D117">
-        <v>710</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3076,7 +3078,7 @@
         <v>134</v>
       </c>
       <c r="D118">
-        <v>711</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3090,7 +3092,7 @@
         <v>134</v>
       </c>
       <c r="D119">
-        <v>712</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3104,7 +3106,7 @@
         <v>134</v>
       </c>
       <c r="D120">
-        <v>713</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3118,7 +3120,7 @@
         <v>153</v>
       </c>
       <c r="D121">
-        <v>714</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3132,7 +3134,7 @@
         <v>153</v>
       </c>
       <c r="D122">
-        <v>715</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3146,7 +3148,7 @@
         <v>153</v>
       </c>
       <c r="D123">
-        <v>716</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3160,7 +3162,7 @@
         <v>153</v>
       </c>
       <c r="D124">
-        <v>717</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3174,7 +3176,7 @@
         <v>153</v>
       </c>
       <c r="D125">
-        <v>718</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3188,7 +3190,7 @@
         <v>153</v>
       </c>
       <c r="D126">
-        <v>719</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3202,7 +3204,7 @@
         <v>134</v>
       </c>
       <c r="D127">
-        <v>720</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3216,7 +3218,7 @@
         <v>161</v>
       </c>
       <c r="D128">
-        <v>721</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3230,7 +3232,7 @@
         <v>161</v>
       </c>
       <c r="D129">
-        <v>722</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3244,7 +3246,7 @@
         <v>161</v>
       </c>
       <c r="D130">
-        <v>723</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3258,7 +3260,7 @@
         <v>166</v>
       </c>
       <c r="D131">
-        <v>724</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3272,7 +3274,7 @@
         <v>166</v>
       </c>
       <c r="D132">
-        <v>725</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3286,7 +3288,7 @@
         <v>166</v>
       </c>
       <c r="D133">
-        <v>726</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3300,7 +3302,7 @@
         <v>170</v>
       </c>
       <c r="D134">
-        <v>727</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3314,7 +3316,7 @@
         <v>170</v>
       </c>
       <c r="D135">
-        <v>728</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3328,7 +3330,7 @@
         <v>170</v>
       </c>
       <c r="D136">
-        <v>729</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3342,7 +3344,7 @@
         <v>174</v>
       </c>
       <c r="D137">
-        <v>730</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3356,7 +3358,7 @@
         <v>174</v>
       </c>
       <c r="D138">
-        <v>731</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3370,7 +3372,7 @@
         <v>174</v>
       </c>
       <c r="D139">
-        <v>732</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3384,7 +3386,7 @@
         <v>178</v>
       </c>
       <c r="D140">
-        <v>733</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3398,7 +3400,7 @@
         <v>178</v>
       </c>
       <c r="D141">
-        <v>734</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3412,7 +3414,7 @@
         <v>178</v>
       </c>
       <c r="D142">
-        <v>735</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3426,7 +3428,7 @@
         <v>178</v>
       </c>
       <c r="D143">
-        <v>736</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3440,7 +3442,7 @@
         <v>178</v>
       </c>
       <c r="D144">
-        <v>737</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3454,7 +3456,7 @@
         <v>178</v>
       </c>
       <c r="D145">
-        <v>738</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3468,7 +3470,7 @@
         <v>178</v>
       </c>
       <c r="D146">
-        <v>739</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3482,7 +3484,7 @@
         <v>178</v>
       </c>
       <c r="D147">
-        <v>740</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3496,7 +3498,7 @@
         <v>178</v>
       </c>
       <c r="D148">
-        <v>741</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/download/sample-csv-products.xlsx
+++ b/download/sample-csv-products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stock_tracking\stock_tracking\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E1F28-6974-4454-83D2-C32A06E423AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D93A6B-AF0C-46D1-B4A0-F1354D8EAA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,8 +1064,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1111,7 +1112,32 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1122,6 +1148,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC786664-E662-4DF2-AE6A-EAF0BD215366}" name="Table1" displayName="Table1" ref="A1:D148" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D148" xr:uid="{AC786664-E662-4DF2-AE6A-EAF0BD215366}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CB6468B9-C7A6-48D9-A7A9-9B1B67E5A5A4}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{18E9A324-B3E0-4B3D-B3F7-9E0A68C7DBFC}" name="Pack"/>
+    <tableColumn id="3" xr3:uid="{52B075D1-7CF8-44F1-9684-EF2407104165}" name="Brand"/>
+    <tableColumn id="4" xr3:uid="{29FE29B3-452D-49C3-A320-1047AAFD5436}" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1424,22 +1463,29 @@
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D148"/>
+      <selection activeCell="A149" sqref="A149:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1453,9 +1499,6 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1467,9 +1510,6 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1481,9 +1521,6 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1495,9 +1532,6 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1509,9 +1543,6 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1523,9 +1554,6 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1537,9 +1565,6 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1551,9 +1576,6 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1565,9 +1587,6 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1579,9 +1598,6 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1593,9 +1609,6 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1607,9 +1620,6 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1621,9 +1631,6 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1635,9 +1642,6 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1649,11 +1653,8 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1663,11 +1664,8 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1677,11 +1675,8 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1691,11 +1686,8 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1705,11 +1697,8 @@
       <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1719,11 +1708,8 @@
       <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1733,11 +1719,8 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1747,11 +1730,8 @@
       <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1761,11 +1741,8 @@
       <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1775,11 +1752,8 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1789,11 +1763,8 @@
       <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1803,11 +1774,8 @@
       <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1817,11 +1785,8 @@
       <c r="C28" t="s">
         <v>47</v>
       </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1831,11 +1796,8 @@
       <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1845,11 +1807,8 @@
       <c r="C30" t="s">
         <v>47</v>
       </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1859,11 +1818,8 @@
       <c r="C31" t="s">
         <v>47</v>
       </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1873,11 +1829,8 @@
       <c r="C32" t="s">
         <v>47</v>
       </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1887,11 +1840,8 @@
       <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -1901,11 +1851,8 @@
       <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1915,11 +1862,8 @@
       <c r="C35" t="s">
         <v>58</v>
       </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1929,11 +1873,8 @@
       <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1943,11 +1884,8 @@
       <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -1957,11 +1895,8 @@
       <c r="C38" t="s">
         <v>58</v>
       </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1971,11 +1906,8 @@
       <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1985,11 +1917,8 @@
       <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1999,11 +1928,8 @@
       <c r="C41" t="s">
         <v>58</v>
       </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2013,11 +1939,8 @@
       <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -2027,11 +1950,8 @@
       <c r="C43" t="s">
         <v>58</v>
       </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -2041,11 +1961,8 @@
       <c r="C44" t="s">
         <v>58</v>
       </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2055,11 +1972,8 @@
       <c r="C45" t="s">
         <v>58</v>
       </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -2069,11 +1983,8 @@
       <c r="C46" t="s">
         <v>58</v>
       </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2083,11 +1994,8 @@
       <c r="C47" t="s">
         <v>58</v>
       </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2097,11 +2005,8 @@
       <c r="C48" t="s">
         <v>74</v>
       </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -2111,11 +2016,8 @@
       <c r="C49" t="s">
         <v>76</v>
       </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -2125,11 +2027,8 @@
       <c r="C50" t="s">
         <v>76</v>
       </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -2139,11 +2038,8 @@
       <c r="C51" t="s">
         <v>76</v>
       </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -2153,11 +2049,8 @@
       <c r="C52" t="s">
         <v>76</v>
       </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -2167,11 +2060,8 @@
       <c r="C53" t="s">
         <v>76</v>
       </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -2181,11 +2071,8 @@
       <c r="C54" t="s">
         <v>76</v>
       </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -2195,11 +2082,8 @@
       <c r="C55" t="s">
         <v>83</v>
       </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -2209,11 +2093,8 @@
       <c r="C56" t="s">
         <v>83</v>
       </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -2223,11 +2104,8 @@
       <c r="C57" t="s">
         <v>83</v>
       </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -2237,11 +2115,8 @@
       <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -2251,11 +2126,8 @@
       <c r="C59" t="s">
         <v>83</v>
       </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -2265,11 +2137,8 @@
       <c r="C60" t="s">
         <v>83</v>
       </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -2279,11 +2148,8 @@
       <c r="C61" t="s">
         <v>83</v>
       </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -2293,11 +2159,8 @@
       <c r="C62" t="s">
         <v>83</v>
       </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -2307,11 +2170,8 @@
       <c r="C63" t="s">
         <v>83</v>
       </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -2321,11 +2181,8 @@
       <c r="C64" t="s">
         <v>83</v>
       </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -2335,11 +2192,8 @@
       <c r="C65" t="s">
         <v>83</v>
       </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -2349,11 +2203,8 @@
       <c r="C66" t="s">
         <v>83</v>
       </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -2363,11 +2214,8 @@
       <c r="C67" t="s">
         <v>83</v>
       </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -2377,11 +2225,8 @@
       <c r="C68" t="s">
         <v>97</v>
       </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -2391,11 +2236,8 @@
       <c r="C69" t="s">
         <v>97</v>
       </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -2405,11 +2247,8 @@
       <c r="C70" t="s">
         <v>97</v>
       </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -2419,11 +2258,8 @@
       <c r="C71" t="s">
         <v>97</v>
       </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -2433,11 +2269,8 @@
       <c r="C72" t="s">
         <v>97</v>
       </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -2447,11 +2280,8 @@
       <c r="C73" t="s">
         <v>97</v>
       </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -2461,11 +2291,8 @@
       <c r="C74" t="s">
         <v>97</v>
       </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -2475,11 +2302,8 @@
       <c r="C75" t="s">
         <v>97</v>
       </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -2489,11 +2313,8 @@
       <c r="C76" t="s">
         <v>97</v>
       </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -2503,11 +2324,8 @@
       <c r="C77" t="s">
         <v>97</v>
       </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -2517,11 +2335,8 @@
       <c r="C78" t="s">
         <v>97</v>
       </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -2531,11 +2346,8 @@
       <c r="C79" t="s">
         <v>97</v>
       </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -2545,11 +2357,8 @@
       <c r="C80" t="s">
         <v>97</v>
       </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -2559,11 +2368,8 @@
       <c r="C81" t="s">
         <v>97</v>
       </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -2573,11 +2379,8 @@
       <c r="C82" t="s">
         <v>97</v>
       </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -2587,11 +2390,8 @@
       <c r="C83" t="s">
         <v>97</v>
       </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -2601,11 +2401,8 @@
       <c r="C84" t="s">
         <v>97</v>
       </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -2615,11 +2412,8 @@
       <c r="C85" t="s">
         <v>97</v>
       </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -2629,11 +2423,8 @@
       <c r="C86" t="s">
         <v>116</v>
       </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>117</v>
       </c>
@@ -2643,11 +2434,8 @@
       <c r="C87" t="s">
         <v>116</v>
       </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -2657,11 +2445,8 @@
       <c r="C88" t="s">
         <v>116</v>
       </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -2671,11 +2456,8 @@
       <c r="C89" t="s">
         <v>116</v>
       </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>120</v>
       </c>
@@ -2685,11 +2467,8 @@
       <c r="C90" t="s">
         <v>116</v>
       </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>121</v>
       </c>
@@ -2699,11 +2478,8 @@
       <c r="C91" t="s">
         <v>116</v>
       </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -2713,11 +2489,8 @@
       <c r="C92" t="s">
         <v>116</v>
       </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -2727,11 +2500,8 @@
       <c r="C93" t="s">
         <v>116</v>
       </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -2741,11 +2511,8 @@
       <c r="C94" t="s">
         <v>116</v>
       </c>
-      <c r="D94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -2755,11 +2522,8 @@
       <c r="C95" t="s">
         <v>116</v>
       </c>
-      <c r="D95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -2769,11 +2533,8 @@
       <c r="C96" t="s">
         <v>116</v>
       </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -2783,11 +2544,8 @@
       <c r="C97" t="s">
         <v>116</v>
       </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -2797,11 +2555,8 @@
       <c r="C98" t="s">
         <v>116</v>
       </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -2811,11 +2566,8 @@
       <c r="C99" t="s">
         <v>129</v>
       </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>130</v>
       </c>
@@ -2825,11 +2577,8 @@
       <c r="C100" t="s">
         <v>129</v>
       </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>131</v>
       </c>
@@ -2839,11 +2588,8 @@
       <c r="C101" t="s">
         <v>129</v>
       </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>132</v>
       </c>
@@ -2853,11 +2599,8 @@
       <c r="C102" t="s">
         <v>129</v>
       </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>133</v>
       </c>
@@ -2867,11 +2610,8 @@
       <c r="C103" t="s">
         <v>134</v>
       </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>135</v>
       </c>
@@ -2881,11 +2621,8 @@
       <c r="C104" t="s">
         <v>134</v>
       </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>136</v>
       </c>
@@ -2895,11 +2632,8 @@
       <c r="C105" t="s">
         <v>134</v>
       </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>137</v>
       </c>
@@ -2909,11 +2643,8 @@
       <c r="C106" t="s">
         <v>134</v>
       </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -2923,11 +2654,8 @@
       <c r="C107" t="s">
         <v>134</v>
       </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>139</v>
       </c>
@@ -2937,11 +2665,8 @@
       <c r="C108" t="s">
         <v>134</v>
       </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>140</v>
       </c>
@@ -2951,11 +2676,8 @@
       <c r="C109" t="s">
         <v>134</v>
       </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>141</v>
       </c>
@@ -2965,11 +2687,8 @@
       <c r="C110" t="s">
         <v>134</v>
       </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>142</v>
       </c>
@@ -2979,11 +2698,8 @@
       <c r="C111" t="s">
         <v>134</v>
       </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>143</v>
       </c>
@@ -2993,11 +2709,8 @@
       <c r="C112" t="s">
         <v>134</v>
       </c>
-      <c r="D112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -3007,11 +2720,8 @@
       <c r="C113" t="s">
         <v>134</v>
       </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>145</v>
       </c>
@@ -3021,11 +2731,8 @@
       <c r="C114" t="s">
         <v>134</v>
       </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -3035,11 +2742,8 @@
       <c r="C115" t="s">
         <v>134</v>
       </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -3049,11 +2753,8 @@
       <c r="C116" t="s">
         <v>134</v>
       </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -3063,11 +2764,8 @@
       <c r="C117" t="s">
         <v>134</v>
       </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>149</v>
       </c>
@@ -3077,11 +2775,8 @@
       <c r="C118" t="s">
         <v>134</v>
       </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>150</v>
       </c>
@@ -3091,11 +2786,8 @@
       <c r="C119" t="s">
         <v>134</v>
       </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>151</v>
       </c>
@@ -3105,11 +2797,8 @@
       <c r="C120" t="s">
         <v>134</v>
       </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -3119,11 +2808,8 @@
       <c r="C121" t="s">
         <v>153</v>
       </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>154</v>
       </c>
@@ -3133,11 +2819,8 @@
       <c r="C122" t="s">
         <v>153</v>
       </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -3147,11 +2830,8 @@
       <c r="C123" t="s">
         <v>153</v>
       </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>156</v>
       </c>
@@ -3161,11 +2841,8 @@
       <c r="C124" t="s">
         <v>153</v>
       </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>157</v>
       </c>
@@ -3175,11 +2852,8 @@
       <c r="C125" t="s">
         <v>153</v>
       </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -3189,11 +2863,8 @@
       <c r="C126" t="s">
         <v>153</v>
       </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>159</v>
       </c>
@@ -3203,11 +2874,8 @@
       <c r="C127" t="s">
         <v>134</v>
       </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -3217,11 +2885,8 @@
       <c r="C128" t="s">
         <v>161</v>
       </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -3231,11 +2896,8 @@
       <c r="C129" t="s">
         <v>161</v>
       </c>
-      <c r="D129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>164</v>
       </c>
@@ -3245,11 +2907,8 @@
       <c r="C130" t="s">
         <v>161</v>
       </c>
-      <c r="D130">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>165</v>
       </c>
@@ -3259,11 +2918,8 @@
       <c r="C131" t="s">
         <v>166</v>
       </c>
-      <c r="D131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>167</v>
       </c>
@@ -3273,11 +2929,8 @@
       <c r="C132" t="s">
         <v>166</v>
       </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -3287,11 +2940,8 @@
       <c r="C133" t="s">
         <v>166</v>
       </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>169</v>
       </c>
@@ -3301,11 +2951,8 @@
       <c r="C134" t="s">
         <v>170</v>
       </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>171</v>
       </c>
@@ -3315,11 +2962,8 @@
       <c r="C135" t="s">
         <v>170</v>
       </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>172</v>
       </c>
@@ -3329,11 +2973,8 @@
       <c r="C136" t="s">
         <v>170</v>
       </c>
-      <c r="D136">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -3343,11 +2984,8 @@
       <c r="C137" t="s">
         <v>174</v>
       </c>
-      <c r="D137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>175</v>
       </c>
@@ -3357,11 +2995,8 @@
       <c r="C138" t="s">
         <v>174</v>
       </c>
-      <c r="D138">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>176</v>
       </c>
@@ -3371,11 +3006,8 @@
       <c r="C139" t="s">
         <v>174</v>
       </c>
-      <c r="D139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>177</v>
       </c>
@@ -3385,11 +3017,8 @@
       <c r="C140" t="s">
         <v>178</v>
       </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>179</v>
       </c>
@@ -3399,11 +3028,8 @@
       <c r="C141" t="s">
         <v>178</v>
       </c>
-      <c r="D141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>180</v>
       </c>
@@ -3413,11 +3039,8 @@
       <c r="C142" t="s">
         <v>178</v>
       </c>
-      <c r="D142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -3427,11 +3050,8 @@
       <c r="C143" t="s">
         <v>178</v>
       </c>
-      <c r="D143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>182</v>
       </c>
@@ -3441,11 +3061,8 @@
       <c r="C144" t="s">
         <v>178</v>
       </c>
-      <c r="D144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>183</v>
       </c>
@@ -3455,11 +3072,8 @@
       <c r="C145" t="s">
         <v>178</v>
       </c>
-      <c r="D145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -3469,11 +3083,8 @@
       <c r="C146" t="s">
         <v>178</v>
       </c>
-      <c r="D146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>185</v>
       </c>
@@ -3483,11 +3094,8 @@
       <c r="C147" t="s">
         <v>178</v>
       </c>
-      <c r="D147">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>186</v>
       </c>
@@ -3497,11 +3105,12 @@
       <c r="C148" t="s">
         <v>178</v>
       </c>
-      <c r="D148">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>